--- a/Code/Results/Cases/Case_5_135/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_135/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.145211690949168</v>
+        <v>2.841834217422502</v>
       </c>
       <c r="C2">
-        <v>0.8235974857357462</v>
+        <v>0.2377829919085457</v>
       </c>
       <c r="D2">
-        <v>0.06567845830741703</v>
+        <v>0.1132707645347892</v>
       </c>
       <c r="E2">
-        <v>0.01896590770004369</v>
+        <v>0.049046120412779</v>
       </c>
       <c r="F2">
-        <v>2.764571881640734</v>
+        <v>2.421976638479862</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3734867061411649</v>
+        <v>0.2716327507868641</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.156053143665872</v>
+        <v>1.946590460329162</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.453778413106647</v>
+        <v>2.683083395745541</v>
       </c>
       <c r="C3">
-        <v>0.7082988367014593</v>
+        <v>0.2069324353714705</v>
       </c>
       <c r="D3">
-        <v>0.06501374429868179</v>
+        <v>0.1136471591582904</v>
       </c>
       <c r="E3">
-        <v>0.01905636987726789</v>
+        <v>0.04924918981984883</v>
       </c>
       <c r="F3">
-        <v>2.473230172984501</v>
+        <v>2.364479096077304</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3265291396794368</v>
+        <v>0.2616684373783045</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.183336138579108</v>
+        <v>1.958222973137481</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.03882201524226</v>
+        <v>2.587462152768467</v>
       </c>
       <c r="C4">
-        <v>0.6387903498714422</v>
+        <v>0.1880198126438586</v>
       </c>
       <c r="D4">
-        <v>0.06478974606729082</v>
+        <v>0.1139298444661492</v>
       </c>
       <c r="E4">
-        <v>0.01912973710263843</v>
+        <v>0.04938467912778588</v>
       </c>
       <c r="F4">
-        <v>2.301382800956631</v>
+        <v>2.330742348702188</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2984496815723361</v>
+        <v>0.255727701541403</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.202312651220055</v>
+        <v>1.966024942044065</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.871801563718975</v>
+        <v>2.548957376177782</v>
       </c>
       <c r="C5">
-        <v>0.610733092190344</v>
+        <v>0.1803193773987459</v>
       </c>
       <c r="D5">
-        <v>0.06474052147694209</v>
+        <v>0.1140579358836504</v>
       </c>
       <c r="E5">
-        <v>0.01916392628572883</v>
+        <v>0.04944261196032196</v>
       </c>
       <c r="F5">
-        <v>2.232918447246846</v>
+        <v>2.317385159484374</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2871723003652704</v>
+        <v>0.253351109369504</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.210565139757776</v>
+        <v>1.969369320993898</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.844184330891096</v>
+        <v>2.542591450739678</v>
       </c>
       <c r="C6">
-        <v>0.6060888877604782</v>
+        <v>0.1790411002427561</v>
       </c>
       <c r="D6">
-        <v>0.06473477257047477</v>
+        <v>0.114079982016861</v>
       </c>
       <c r="E6">
-        <v>0.0191698573897412</v>
+        <v>0.04945239602782303</v>
       </c>
       <c r="F6">
-        <v>2.221638907721214</v>
+        <v>2.315190718983146</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2853090215046592</v>
+        <v>0.2529591453428708</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.211965738325915</v>
+        <v>1.969934594587173</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.036561522309967</v>
+        <v>2.586941000068123</v>
       </c>
       <c r="C7">
-        <v>0.638410943493227</v>
+        <v>0.187915936247947</v>
       </c>
       <c r="D7">
-        <v>0.06478891719326185</v>
+        <v>0.1139315198387649</v>
       </c>
       <c r="E7">
-        <v>0.01913018105054931</v>
+        <v>0.04938544941335987</v>
       </c>
       <c r="F7">
-        <v>2.300453386435791</v>
+        <v>2.330560630820443</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2982969519019321</v>
+        <v>0.2556954709875185</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.202421893971788</v>
+        <v>1.966069378471538</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.904604255395668</v>
+        <v>2.786709895397905</v>
       </c>
       <c r="C8">
-        <v>0.7835406075109859</v>
+        <v>0.227139012690742</v>
       </c>
       <c r="D8">
-        <v>0.06540833613981789</v>
+        <v>0.1133897951206606</v>
       </c>
       <c r="E8">
-        <v>0.0189932785469229</v>
+        <v>0.04911389825120471</v>
       </c>
       <c r="F8">
-        <v>2.662526485057811</v>
+        <v>2.401824287529735</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3571242511884236</v>
+        <v>0.2681600511346431</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.164973173371564</v>
+        <v>1.950463952926299</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.700016629034565</v>
+        <v>3.193367121953372</v>
       </c>
       <c r="C9">
-        <v>1.081187128226645</v>
+        <v>0.304334464293845</v>
       </c>
       <c r="D9">
-        <v>0.06830456857204581</v>
+        <v>0.1127401793197365</v>
       </c>
       <c r="E9">
-        <v>0.01887608719359868</v>
+        <v>0.04866697884750781</v>
       </c>
       <c r="F9">
-        <v>3.438908565633284</v>
+        <v>2.554161799494267</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4796905311433335</v>
+        <v>0.2940259638491654</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.111240206421073</v>
+        <v>1.925133008421824</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.103652709569531</v>
+        <v>3.501561083298441</v>
       </c>
       <c r="C10">
-        <v>1.312461380259151</v>
+        <v>0.3612856057851559</v>
       </c>
       <c r="D10">
-        <v>0.07181980759593642</v>
+        <v>0.1125194272341474</v>
       </c>
       <c r="E10">
-        <v>0.01889834690437109</v>
+        <v>0.04839063558229384</v>
       </c>
       <c r="F10">
-        <v>4.066801179259897</v>
+        <v>2.673992092429216</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5761283599721594</v>
+        <v>0.3139209947141666</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.087100889316787</v>
+        <v>1.909788611674941</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.768099460645544</v>
+        <v>3.643888120940574</v>
       </c>
       <c r="C11">
-        <v>1.421678091311207</v>
+        <v>0.3872600052347366</v>
       </c>
       <c r="D11">
-        <v>0.07382099040190582</v>
+        <v>0.1124757954356213</v>
       </c>
       <c r="E11">
-        <v>0.01893647008452959</v>
+        <v>0.04827617917381932</v>
       </c>
       <c r="F11">
-        <v>4.369560656393702</v>
+        <v>2.730275165508971</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6219283676976346</v>
+        <v>0.3231707290510428</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.080359995503144</v>
+        <v>1.90352888131163</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9.024199150481763</v>
+        <v>3.698095256445981</v>
       </c>
       <c r="C12">
-        <v>1.463741412703655</v>
+        <v>0.397106575249154</v>
       </c>
       <c r="D12">
-        <v>0.07464704463352234</v>
+        <v>0.1124675299819984</v>
       </c>
       <c r="E12">
-        <v>0.01895539333644081</v>
+        <v>0.04823445324871578</v>
       </c>
       <c r="F12">
-        <v>4.487140740472341</v>
+        <v>2.751846892124007</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6396037754759192</v>
+        <v>0.3267024377777261</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.078510267714492</v>
+        <v>1.901263075431615</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.968830315009654</v>
+        <v>3.686406868920017</v>
       </c>
       <c r="C13">
-        <v>1.454648645357224</v>
+        <v>0.3949854515706193</v>
       </c>
       <c r="D13">
-        <v>0.07446591547562065</v>
+        <v>0.1124689414019855</v>
       </c>
       <c r="E13">
-        <v>0.01895111002158423</v>
+        <v>0.04824336782186922</v>
       </c>
       <c r="F13">
-        <v>4.4616790056848</v>
+        <v>2.747189474832993</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6357813265483543</v>
+        <v>0.3259405238874393</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.078875709834833</v>
+        <v>1.901746388098829</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.789074147725614</v>
+        <v>3.648341513346054</v>
       </c>
       <c r="C14">
-        <v>1.425123707316061</v>
+        <v>0.3880698697322487</v>
       </c>
       <c r="D14">
-        <v>0.07388751551605566</v>
+        <v>0.1124749494244881</v>
       </c>
       <c r="E14">
-        <v>0.01893793403152255</v>
+        <v>0.04827271397643607</v>
       </c>
       <c r="F14">
-        <v>4.379172300550977</v>
+        <v>2.732044680831706</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6233755355143842</v>
+        <v>0.3234607008323707</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.080193135444603</v>
+        <v>1.903340369560397</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.679577656982701</v>
+        <v>3.625066031417191</v>
       </c>
       <c r="C15">
-        <v>1.40713491158391</v>
+        <v>0.3838352899968527</v>
       </c>
       <c r="D15">
-        <v>0.07354246113310836</v>
+        <v>0.1124797075340211</v>
       </c>
       <c r="E15">
-        <v>0.01893046286011657</v>
+        <v>0.04829089976659251</v>
       </c>
       <c r="F15">
-        <v>4.329031686490055</v>
+        <v>2.722801841294512</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6158216367256983</v>
+        <v>0.3219455297762863</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.081094689792636</v>
+        <v>1.90433038381741</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.060813229314704</v>
+        <v>3.492302920214684</v>
       </c>
       <c r="C16">
-        <v>1.305414973874292</v>
+        <v>0.3595895507752971</v>
       </c>
       <c r="D16">
-        <v>0.07169796353569069</v>
+        <v>0.1125234291385766</v>
       </c>
       <c r="E16">
-        <v>0.01889645629171</v>
+        <v>0.04839834185333114</v>
       </c>
       <c r="F16">
-        <v>4.047398008383084</v>
+        <v>2.670349833742421</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5731784977145367</v>
+        <v>0.3133205458588435</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.087634336452084</v>
+        <v>1.910212284256033</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.688361955894834</v>
+        <v>3.411405592728556</v>
       </c>
       <c r="C17">
-        <v>1.24412450424893</v>
+        <v>0.3447334429776561</v>
       </c>
       <c r="D17">
-        <v>0.07067622658053807</v>
+        <v>0.1125648600629177</v>
       </c>
       <c r="E17">
-        <v>0.01888306679623497</v>
+        <v>0.04846713492839871</v>
       </c>
       <c r="F17">
-        <v>3.879320253774523</v>
+        <v>2.638628664890916</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5475484848120402</v>
+        <v>0.3080807210012324</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.092793455172952</v>
+        <v>1.914005893466936</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.476525568859302</v>
+        <v>3.365075588672994</v>
       </c>
       <c r="C18">
-        <v>1.209240249045422</v>
+        <v>0.3361948525414959</v>
       </c>
       <c r="D18">
-        <v>0.07012566796137065</v>
+        <v>0.1125940297986148</v>
       </c>
       <c r="E18">
-        <v>0.01887796861361934</v>
+        <v>0.0485077622351282</v>
       </c>
       <c r="F18">
-        <v>3.784226146278883</v>
+        <v>2.620550015391245</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5329846817340353</v>
+        <v>0.3050856571229161</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.096153497374729</v>
+        <v>1.916255633949632</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.405190443456831</v>
+        <v>3.349423246077208</v>
       </c>
       <c r="C19">
-        <v>1.197488753226594</v>
+        <v>0.333304876140744</v>
       </c>
       <c r="D19">
-        <v>0.06994534676243092</v>
+        <v>0.112604820543531</v>
       </c>
       <c r="E19">
-        <v>0.01887667686435002</v>
+        <v>0.04852169995042832</v>
       </c>
       <c r="F19">
-        <v>3.752287262037981</v>
+        <v>2.614457382392175</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5280826736720172</v>
+        <v>0.3040747884484318</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.097356012670588</v>
+        <v>1.917028964194643</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.727757820548163</v>
+        <v>3.419996516625929</v>
       </c>
       <c r="C20">
-        <v>1.250609990788575</v>
+        <v>0.3463142470774301</v>
       </c>
       <c r="D20">
-        <v>0.0707810814020462</v>
+        <v>0.1125598963739449</v>
       </c>
       <c r="E20">
-        <v>0.01888421965363474</v>
+        <v>0.04845970216427986</v>
       </c>
       <c r="F20">
-        <v>3.897045781253098</v>
+        <v>2.641988175277419</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5502580666128836</v>
+        <v>0.3086365666805051</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.092202997517788</v>
+        <v>1.913595037459942</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.841744349559576</v>
+        <v>3.659513751074769</v>
       </c>
       <c r="C21">
-        <v>1.433775609648592</v>
+        <v>0.3901008473259822</v>
       </c>
       <c r="D21">
-        <v>0.07405546002976848</v>
+        <v>0.1124729598992076</v>
       </c>
       <c r="E21">
-        <v>0.01894167825193183</v>
+        <v>0.04826405045083071</v>
       </c>
       <c r="F21">
-        <v>4.403322800877078</v>
+        <v>2.736486026520964</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6270099267239004</v>
+        <v>0.3241882940303498</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.079786271507174</v>
+        <v>1.90286933113623</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.596416557277394</v>
+        <v>3.817867099816681</v>
       </c>
       <c r="C22">
-        <v>1.557674210025141</v>
+        <v>0.4187803459709585</v>
       </c>
       <c r="D22">
-        <v>0.07659968383487836</v>
+        <v>0.1124643131141312</v>
       </c>
       <c r="E22">
-        <v>0.0190056660018989</v>
+        <v>0.04814560052720918</v>
       </c>
       <c r="F22">
-        <v>4.751574292179583</v>
+        <v>2.799754657441071</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6791391468006083</v>
+        <v>0.3345216605275851</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.075824648175796</v>
+        <v>1.896469736218307</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.190909943019051</v>
+        <v>3.733183194872481</v>
       </c>
       <c r="C23">
-        <v>1.491114792182373</v>
+        <v>0.4034675144938547</v>
       </c>
       <c r="D23">
-        <v>0.07520079089516685</v>
+        <v>0.1124644899724316</v>
       </c>
       <c r="E23">
-        <v>0.01896891905120057</v>
+        <v>0.04820795820745172</v>
       </c>
       <c r="F23">
-        <v>4.563938638111154</v>
+        <v>2.765847672990844</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6511161704474659</v>
+        <v>0.3289909245548301</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.077523550403185</v>
+        <v>1.899829142756928</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.709939870299081</v>
+        <v>3.416112002925047</v>
       </c>
       <c r="C24">
-        <v>1.247676813900625</v>
+        <v>0.3455995581934417</v>
       </c>
       <c r="D24">
-        <v>0.07073356251395069</v>
+        <v>0.1125621237983339</v>
       </c>
       <c r="E24">
-        <v>0.01888369038271875</v>
+        <v>0.04846305916142857</v>
       </c>
       <c r="F24">
-        <v>3.889027320142418</v>
+        <v>2.6404688479318</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5490325353012082</v>
+        <v>0.3083852147374841</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.092468723047105</v>
+        <v>1.913780571414875</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.201713395581805</v>
+        <v>3.081725240779633</v>
       </c>
       <c r="C25">
-        <v>0.9988319667844792</v>
+        <v>0.2834144603444315</v>
       </c>
       <c r="D25">
-        <v>0.0673071482512313</v>
+        <v>0.1128712313768077</v>
       </c>
       <c r="E25">
-        <v>0.01889008235447687</v>
+        <v>0.04877873720234671</v>
       </c>
       <c r="F25">
-        <v>3.220164286775145</v>
+        <v>2.511578800826101</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4455729338474583</v>
+        <v>0.2868737749718377</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.123353736406145</v>
+        <v>1.931415975659021</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_135/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_135/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.841834217422502</v>
+        <v>5.145211690949225</v>
       </c>
       <c r="C2">
-        <v>0.2377829919085457</v>
+        <v>0.8235974857357746</v>
       </c>
       <c r="D2">
-        <v>0.1132707645347892</v>
+        <v>0.06567845830718966</v>
       </c>
       <c r="E2">
-        <v>0.049046120412779</v>
+        <v>0.01896590770004636</v>
       </c>
       <c r="F2">
-        <v>2.421976638479862</v>
+        <v>2.764571881640734</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2716327507868641</v>
+        <v>0.3734867061410796</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.946590460329162</v>
+        <v>1.156053143665886</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.683083395745541</v>
+        <v>4.453778413106591</v>
       </c>
       <c r="C3">
-        <v>0.2069324353714705</v>
+        <v>0.7082988367016867</v>
       </c>
       <c r="D3">
-        <v>0.1136471591582904</v>
+        <v>0.06501374429881679</v>
       </c>
       <c r="E3">
-        <v>0.04924918981984883</v>
+        <v>0.01905636987730386</v>
       </c>
       <c r="F3">
-        <v>2.364479096077304</v>
+        <v>2.473230172984501</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2616684373783045</v>
+        <v>0.326529139679451</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.958222973137481</v>
+        <v>1.183336138579122</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.587462152768467</v>
+        <v>4.03882201524226</v>
       </c>
       <c r="C4">
-        <v>0.1880198126438586</v>
+        <v>0.6387903498716412</v>
       </c>
       <c r="D4">
-        <v>0.1139298444661492</v>
+        <v>0.06478974606729793</v>
       </c>
       <c r="E4">
-        <v>0.04938467912778588</v>
+        <v>0.01912973710266641</v>
       </c>
       <c r="F4">
-        <v>2.330742348702188</v>
+        <v>2.301382800956631</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.255727701541403</v>
+        <v>0.2984496815724498</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.966024942044065</v>
+        <v>1.202312651220112</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.548957376177782</v>
+        <v>3.871801563718691</v>
       </c>
       <c r="C5">
-        <v>0.1803193773987459</v>
+        <v>0.6107330921903156</v>
       </c>
       <c r="D5">
-        <v>0.1140579358836504</v>
+        <v>0.06474052147706288</v>
       </c>
       <c r="E5">
-        <v>0.04944261196032196</v>
+        <v>0.01916392628572794</v>
       </c>
       <c r="F5">
-        <v>2.317385159484374</v>
+        <v>2.232918447246846</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.253351109369504</v>
+        <v>0.2871723003653699</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.969369320993898</v>
+        <v>1.210565139757861</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.542591450739678</v>
+        <v>3.844184330891096</v>
       </c>
       <c r="C6">
-        <v>0.1790411002427561</v>
+        <v>0.606088887760734</v>
       </c>
       <c r="D6">
-        <v>0.114079982016861</v>
+        <v>0.06473477257049609</v>
       </c>
       <c r="E6">
-        <v>0.04945239602782303</v>
+        <v>0.01916985738975008</v>
       </c>
       <c r="F6">
-        <v>2.315190718983146</v>
+        <v>2.2216389077212</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2529591453428708</v>
+        <v>0.2853090215045881</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.969934594587173</v>
+        <v>1.211965738325944</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.586941000068123</v>
+        <v>4.03656152231008</v>
       </c>
       <c r="C7">
-        <v>0.187915936247947</v>
+        <v>0.6384109434931418</v>
       </c>
       <c r="D7">
-        <v>0.1139315198387649</v>
+        <v>0.06478891719315527</v>
       </c>
       <c r="E7">
-        <v>0.04938544941335987</v>
+        <v>0.0191301810504898</v>
       </c>
       <c r="F7">
-        <v>2.330560630820443</v>
+        <v>2.300453386435819</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2556954709875185</v>
+        <v>0.2982969519019321</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.966069378471538</v>
+        <v>1.202421893971731</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.786709895397905</v>
+        <v>4.904604255395896</v>
       </c>
       <c r="C8">
-        <v>0.227139012690742</v>
+        <v>0.7835406075112417</v>
       </c>
       <c r="D8">
-        <v>0.1133897951206606</v>
+        <v>0.06540833613991737</v>
       </c>
       <c r="E8">
-        <v>0.04911389825120471</v>
+        <v>0.01899327854691268</v>
       </c>
       <c r="F8">
-        <v>2.401824287529735</v>
+        <v>2.662526485057782</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2681600511346431</v>
+        <v>0.3571242511883099</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.950463952926299</v>
+        <v>1.164973173371536</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.193367121953372</v>
+        <v>6.700016629034792</v>
       </c>
       <c r="C9">
-        <v>0.304334464293845</v>
+        <v>1.081187128226901</v>
       </c>
       <c r="D9">
-        <v>0.1127401793197365</v>
+        <v>0.06830456857184686</v>
       </c>
       <c r="E9">
-        <v>0.04866697884750781</v>
+        <v>0.01887608719360134</v>
       </c>
       <c r="F9">
-        <v>2.554161799494267</v>
+        <v>3.438908565633312</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2940259638491654</v>
+        <v>0.4796905311431772</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.925133008421824</v>
+        <v>1.111240206421073</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.501561083298441</v>
+        <v>8.103652709569417</v>
       </c>
       <c r="C10">
-        <v>0.3612856057851559</v>
+        <v>1.31246138025881</v>
       </c>
       <c r="D10">
-        <v>0.1125194272341474</v>
+        <v>0.07181980759609274</v>
       </c>
       <c r="E10">
-        <v>0.04839063558229384</v>
+        <v>0.01889834690433911</v>
       </c>
       <c r="F10">
-        <v>2.673992092429216</v>
+        <v>4.066801179259897</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3139209947141666</v>
+        <v>0.5761283599721168</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.909788611674941</v>
+        <v>1.087100889316801</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.643888120940574</v>
+        <v>8.768099460645658</v>
       </c>
       <c r="C11">
-        <v>0.3872600052347366</v>
+        <v>1.42167809131098</v>
       </c>
       <c r="D11">
-        <v>0.1124757954356213</v>
+        <v>0.07382099040192003</v>
       </c>
       <c r="E11">
-        <v>0.04827617917381932</v>
+        <v>0.01893647008453847</v>
       </c>
       <c r="F11">
-        <v>2.730275165508971</v>
+        <v>4.369560656393674</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3231707290510428</v>
+        <v>0.6219283676975778</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.90352888131163</v>
+        <v>1.080359995503173</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.698095256445981</v>
+        <v>9.024199150481877</v>
       </c>
       <c r="C12">
-        <v>0.397106575249154</v>
+        <v>1.463741412703371</v>
       </c>
       <c r="D12">
-        <v>0.1124675299819984</v>
+        <v>0.07464704463404814</v>
       </c>
       <c r="E12">
-        <v>0.04823445324871578</v>
+        <v>0.01895539333642038</v>
       </c>
       <c r="F12">
-        <v>2.751846892124007</v>
+        <v>4.487140740472313</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3267024377777261</v>
+        <v>0.6396037754758908</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.901263075431615</v>
+        <v>1.078510267714506</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.686406868920017</v>
+        <v>8.968830315009541</v>
       </c>
       <c r="C13">
-        <v>0.3949854515706193</v>
+        <v>1.454648645357452</v>
       </c>
       <c r="D13">
-        <v>0.1124689414019855</v>
+        <v>0.07446591547549986</v>
       </c>
       <c r="E13">
-        <v>0.04824336782186922</v>
+        <v>0.01895111002160021</v>
       </c>
       <c r="F13">
-        <v>2.747189474832993</v>
+        <v>4.461679005684772</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3259405238874393</v>
+        <v>0.6357813265483117</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.901746388098829</v>
+        <v>1.078875709834776</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.648341513346054</v>
+        <v>8.789074147725728</v>
       </c>
       <c r="C14">
-        <v>0.3880698697322487</v>
+        <v>1.425123707316061</v>
       </c>
       <c r="D14">
-        <v>0.1124749494244881</v>
+        <v>0.07388751551619066</v>
       </c>
       <c r="E14">
-        <v>0.04827271397643607</v>
+        <v>0.01893793403155986</v>
       </c>
       <c r="F14">
-        <v>2.732044680831706</v>
+        <v>4.379172300551033</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3234607008323707</v>
+        <v>0.6233755355142421</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.903340369560397</v>
+        <v>1.080193135444645</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.625066031417191</v>
+        <v>8.679577656982701</v>
       </c>
       <c r="C15">
-        <v>0.3838352899968527</v>
+        <v>1.407134911583398</v>
       </c>
       <c r="D15">
-        <v>0.1124797075340211</v>
+        <v>0.07354246113295915</v>
       </c>
       <c r="E15">
-        <v>0.04829089976659251</v>
+        <v>0.01893046286014499</v>
       </c>
       <c r="F15">
-        <v>2.722801841294512</v>
+        <v>4.329031686490083</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3219455297762863</v>
+        <v>0.6158216367256699</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.90433038381741</v>
+        <v>1.081094689792636</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.492302920214684</v>
+        <v>8.060813229314817</v>
       </c>
       <c r="C16">
-        <v>0.3595895507752971</v>
+        <v>1.305414973874008</v>
       </c>
       <c r="D16">
-        <v>0.1125234291385766</v>
+        <v>0.07169796353544911</v>
       </c>
       <c r="E16">
-        <v>0.04839834185333114</v>
+        <v>0.01889645629170378</v>
       </c>
       <c r="F16">
-        <v>2.670349833742421</v>
+        <v>4.047398008383084</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3133205458588435</v>
+        <v>0.5731784977144088</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.910212284256033</v>
+        <v>1.087634336452069</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.411405592728556</v>
+        <v>7.688361955895004</v>
       </c>
       <c r="C17">
-        <v>0.3447334429776561</v>
+        <v>1.244124504248873</v>
       </c>
       <c r="D17">
-        <v>0.1125648600629177</v>
+        <v>0.07067622658054518</v>
       </c>
       <c r="E17">
-        <v>0.04846713492839871</v>
+        <v>0.01888306679623586</v>
       </c>
       <c r="F17">
-        <v>2.638628664890916</v>
+        <v>3.879320253774523</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3080807210012324</v>
+        <v>0.5475484848120118</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.914005893466936</v>
+        <v>1.092793455172952</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.365075588672994</v>
+        <v>7.476525568859245</v>
       </c>
       <c r="C18">
-        <v>0.3361948525414959</v>
+        <v>1.209240249045706</v>
       </c>
       <c r="D18">
-        <v>0.1125940297986148</v>
+        <v>0.07012566796115749</v>
       </c>
       <c r="E18">
-        <v>0.0485077622351282</v>
+        <v>0.01887796861359181</v>
       </c>
       <c r="F18">
-        <v>2.620550015391245</v>
+        <v>3.784226146278883</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3050856571229161</v>
+        <v>0.5329846817338364</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.916255633949632</v>
+        <v>1.096153497374715</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.349423246077208</v>
+        <v>7.405190443456775</v>
       </c>
       <c r="C19">
-        <v>0.333304876140744</v>
+        <v>1.19748875322631</v>
       </c>
       <c r="D19">
-        <v>0.112604820543531</v>
+        <v>0.0699453467625446</v>
       </c>
       <c r="E19">
-        <v>0.04852169995042832</v>
+        <v>0.01887667686436156</v>
       </c>
       <c r="F19">
-        <v>2.614457382392175</v>
+        <v>3.752287262037953</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3040747884484318</v>
+        <v>0.5280826736719462</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.917028964194643</v>
+        <v>1.09735601267063</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.419996516625929</v>
+        <v>7.727757820548334</v>
       </c>
       <c r="C20">
-        <v>0.3463142470774301</v>
+        <v>1.250609990788575</v>
       </c>
       <c r="D20">
-        <v>0.1125598963739449</v>
+        <v>0.0707810814021812</v>
       </c>
       <c r="E20">
-        <v>0.04845970216427986</v>
+        <v>0.01888421965362941</v>
       </c>
       <c r="F20">
-        <v>2.641988175277419</v>
+        <v>3.897045781253098</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3086365666805051</v>
+        <v>0.5502580666126704</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.913595037459942</v>
+        <v>1.092202997517703</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.659513751074769</v>
+        <v>8.841744349559804</v>
       </c>
       <c r="C21">
-        <v>0.3901008473259822</v>
+        <v>1.433775609648819</v>
       </c>
       <c r="D21">
-        <v>0.1124729598992076</v>
+        <v>0.07405546003012375</v>
       </c>
       <c r="E21">
-        <v>0.04826405045083071</v>
+        <v>0.01894167825192739</v>
       </c>
       <c r="F21">
-        <v>2.736486026520964</v>
+        <v>4.403322800877106</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3241882940303498</v>
+        <v>0.627009926723872</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.90286933113623</v>
+        <v>1.079786271507174</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.817867099816681</v>
+        <v>9.596416557277621</v>
       </c>
       <c r="C22">
-        <v>0.4187803459709585</v>
+        <v>1.557674210025709</v>
       </c>
       <c r="D22">
-        <v>0.1124643131141312</v>
+        <v>0.07659968383467231</v>
       </c>
       <c r="E22">
-        <v>0.04814560052720918</v>
+        <v>0.01900566600184472</v>
       </c>
       <c r="F22">
-        <v>2.799754657441071</v>
+        <v>4.751574292179583</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3345216605275851</v>
+        <v>0.6791391468003951</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.896469736218307</v>
+        <v>1.075824648175754</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.733183194872481</v>
+        <v>9.190909943019165</v>
       </c>
       <c r="C23">
-        <v>0.4034675144938547</v>
+        <v>1.4911147921826</v>
       </c>
       <c r="D23">
-        <v>0.1124644899724316</v>
+        <v>0.07520079089495368</v>
       </c>
       <c r="E23">
-        <v>0.04820795820745172</v>
+        <v>0.01896891905120235</v>
       </c>
       <c r="F23">
-        <v>2.765847672990844</v>
+        <v>4.563938638111125</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3289909245548301</v>
+        <v>0.6511161704475938</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.899829142756928</v>
+        <v>1.077523550403171</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.416112002925047</v>
+        <v>7.709939870299081</v>
       </c>
       <c r="C24">
-        <v>0.3455995581934417</v>
+        <v>1.247676813900341</v>
       </c>
       <c r="D24">
-        <v>0.1125621237983339</v>
+        <v>0.07073356251369489</v>
       </c>
       <c r="E24">
-        <v>0.04846305916142857</v>
+        <v>0.01888369038282622</v>
       </c>
       <c r="F24">
-        <v>2.6404688479318</v>
+        <v>3.889027320142361</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3083852147374841</v>
+        <v>0.5490325353011656</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.913780571414875</v>
+        <v>1.092468723047119</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.081725240779633</v>
+        <v>6.201713395581521</v>
       </c>
       <c r="C25">
-        <v>0.2834144603444315</v>
+        <v>0.9988319667842518</v>
       </c>
       <c r="D25">
-        <v>0.1128712313768077</v>
+        <v>0.06730714825135919</v>
       </c>
       <c r="E25">
-        <v>0.04877873720234671</v>
+        <v>0.01889008235444578</v>
       </c>
       <c r="F25">
-        <v>2.511578800826101</v>
+        <v>3.220164286775116</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2868737749718377</v>
+        <v>0.4455729338473873</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.931415975659021</v>
+        <v>1.123353736406216</v>
       </c>
       <c r="O25">
         <v>0</v>
